--- a/data/publications/orcid/export_to_manual/Uniwersytet_Kardynała_Stefana_Wyszyńskiego_w_Warszawie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Kardynała_Stefana_Wyszyńskiego_w_Warszawie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2440 +436,2640 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Anna Małgorzata Czyżkowska</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8695-2381</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Polish adaptation of the Parents as Social Context Questionnaire (PASCQ). Towards a synthesis of parental relationship models</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Educational Psychology</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Anna_Małgorzata_Czyżkowska_1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Anna Małgorzata Czyżkowska</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8695-2381</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Polska adaptacja Kwestionariusza interpersonalnego kontekstu rodzicielstwa (PASCQ). Próba syntezy konstruktów opisujących relacje wychowawcze i rodzicielskie</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Psychologia Wychowawcza</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anna_Małgorzata_Czyżkowska_2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Anna Małgorzata Czyżkowska</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8695-2381</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Komunikacja, relacje partnerskie oraz funkcjonowanie seksualne par leczących się z powodu niepłodnósci</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Studia Psychologica: Theoria et praxis</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anna_Małgorzata_Czyżkowska_3</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Dominik Gołuch</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0578-2171</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Religious coping and general mental health in practising and nonpractising catholics</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Towarzystwa Uniwersyteckiego Fides et Ratio</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dominik_Gołuch_2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Jarosław Tomasz Jastrzębski</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6730-5920</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Rodzaje doświadczanych emocji a życie seksualne mężczyzn po przebytym zawale mięśnia sercowego</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017-12-31</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Fides et Ratio</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jarosław_Tomasz_Jastrzębski_2</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jarosław Tomasz Jastrzębski</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6730-5920</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Poziom depresji u kobiet z utrudnioną prokreacją a styl radzenia sobie ze stresem i płeć psychologiczna</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2017-03-30</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Fides et Ratio</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jarosław_Tomasz_Jastrzębski_3</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>96</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Waldemar Henryk Klinkosz</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7446-1868</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Trudności studenckiego życia</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2020-10-26</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Wgląd</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Waldemar_Henryk_Klinkosz_5</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Waldemar Henryk Klinkosz</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7446-1868</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Assessment of achievement motivation and personality of Polish and German students</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Waldemar_Henryk_Klinkosz_9</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>101</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Waldemar Henryk Klinkosz</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7446-1868</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Motywacja osiągnięć a osobowość. Badania polskich i niemieckich studentów</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2018-09-01</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny/REVIEWERS FOR THE REVIEW OF PSYCHOLOGY</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Waldemar_Henryk_Klinkosz_10</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>102</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Waldemar Henryk Klinkosz</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7446-1868</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Slow w edukacji czyli powrót do podmiotowości</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Scientific Bulletin of Chełm - Section of Pedagogy</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Waldemar_Henryk_Klinkosz_11</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>103</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Waldemar Henryk Klinkosz</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7446-1868</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Symulacje mentalne u osób o prawidłowej masie ciała i z nadwagą</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2017-11-01</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Scientific Bulletin of Chełm – Section of Pedagogy</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Waldemar_Henryk_Klinkosz_12</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>104</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Waldemar Henryk Klinkosz</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7446-1868</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Slow w edukacji czyli powrót do podmiotowości</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017-04-11</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Scientific bulletin of Chełm - Section of Pedagogy, 1, 11-22.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Waldemar_Henryk_Klinkosz_13</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>105</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>An assessment of physical efficiency in cadet pilots before and after the implementation of a program preparing for flights</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Int J Occup Med Environ Health</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>106</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Relationship between Self-Reported Symptoms of Fatigue and Cognitive Performance: Switch Cost as a Sensitive Indicator of Fatigue</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Psihologijske teme</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>107</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Analysis of the human factor in air accidents in polish civil aviation in the years 2010-2015</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Pol J Aviat Med Bioeng Psychol 2018</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>108</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Psychological aspects of diving in selected theoretical and research perspectives</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Polish Hyperbaric Research</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_4</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>109</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Psychological aspects of diving in selected theoretical and research perspectives</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Polish Hyperbaric Research</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_5</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>110</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Physical fitness and the level of learning by pilot cadets in the initial period of studying in the Polish Air Force Academy (PAFA) in Dęblin</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>The Polish Journal of Aviation Medicine, Bioengineering and Psychology</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_6</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>111</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Cooperation of aviation psychologists in the Military Institute of Aviation Medicine and in the military aviation and Medical Commission at the Military Aviation Hospital in Dęblin</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Pol J Aviat Med Bioeng Psychol</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_7</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>112</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Cooperation of aviation psychologists in the Military Institute of Aviation Medicine and in the Military Aviation and Medical Commission at the Military Aviation Hospital in Dęblin</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>The Polish Journal of Aviation Medicine, Bioengineering and Psychology</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_8</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>113</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>ense of control, satisfaction with life and stress coping styles of flight staff</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>The Polish Journal of Aviation Medicine, Bioengineering and Psychology</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_9</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>114</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Zdzisław Kobos</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8349-5349</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>he Big Five personality and temperamental traits and its correlation with styles of coping with stress in the fire brigade officers</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Journal of Education Culture and Society</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Zdzisław_Kobos_10</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>148</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Katarzyna Kwiatkowska</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7535-7763</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Zachowania transgresyjne a uwarunkowania osobowościowe</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Fides et Ratio</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Katarzyna_Kwiatkowska_6</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>166</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Karol Lewczuk</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2437-2450</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Wyczerpanie ego, glukoza i kryzys replikacyjny: dwadzieścia lat zasobowego modelu samokontroli</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>PSYCHOLOGIA-ETOLOGIA-GENETYKA</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Karol_Lewczuk_18</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>170</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Anna Maria Lipska</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1166-0699</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Psychic wholeness in the context of Anna Terruwe and Conrad Baars’ theory of repressive neuroses</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Studia Psychologica: Theoria et praxis</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Anna_Maria_Lipska_3</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>174</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Patryk Marek Łakuta</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4885-1491</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Anankastia or Psychoticism? Which One Is Better Suited for the Fifth Trait in the Pathological Big Five: Insight From the Circumplex of Personality Metatraits Perspective</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Frontiers in psychiatry</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Patryk_Marek_Łakuta_3</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>195</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Katarzyna Martowska</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3157-8150</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>From research on determinants of emotional competencies</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Studia Psychologica: Theoria et praxis</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Katarzyna_Martowska_1</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>197</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Katarzyna Martowska</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3157-8150</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Adolescents’ emotional abilities and stress coping strategies: The moderating role of gender</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Polish Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Katarzyna_Martowska_3</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>198</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Katarzyna Martowska</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3157-8150</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Overexcitability Profile Among University Students at Music-Focused Institutions</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Roeper Review-A Journal on Gifted Education</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Katarzyna_Martowska_4</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>200</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Katarzyna Martowska</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3157-8150</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Psychological characteristics of 101 patients with benign proctological diseases</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Nowa Medycyna</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Katarzyna_Martowska_6</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>201</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Katarzyna Martowska</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3157-8150</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Overexcitability in actors</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Psychology of Aesthetics, Creativity, and the Arts</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Katarzyna_Martowska_7</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>203</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Katarzyna Martowska</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3157-8150</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Temperamental characteristics and depressive symptoms in patients with mild proctological diseases based on research in 50 patients. A preliminary report</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Nowa Medycyna</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Katarzyna_Martowska_9</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>204</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Katarzyna Martowska</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3157-8150</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Dedicated tool to assess the impact of a rhetorical task on human body temperature</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>International Journal of Psychophysiology</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Katarzyna_Martowska_10</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>222</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Marek Antoni Nieznański</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2457-3909</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Relationship between Self-Reported Symptoms of Fatigue and Cognitive Performance: Switch Cost as a Sensitive Indicator of Fatigue</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2020-07-10</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Psihologijske teme/Psychological Topics</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Marek_Antoni_Nieznański_4</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>225</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Marek Antoni Nieznański</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2457-3909</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Normy uzupełnień dla 239 polskich zdań</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Marek_Antoni_Nieznański_7</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>246</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Andrzej Pankalla</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9138-6185</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t xml:space="preserve">Doświadczenie rodzicielstwa w warunkach transkulturowych – wyniki badań metodą IPA (Londyn). </t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Studia z Teorii Wychowania</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Andrzej_Pankalla_4</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>248</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Andrzej Pankalla</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9138-6185</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t xml:space="preserve">Re-wizja i re-autoryzacja psychologii. Ekspedycja na peryferie – od myśli krytycznej ku psychologii realnej. </t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne – Psychological Journal</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Andrzej_Pankalla_6</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>272</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Klaudia Ponikiewska</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4425-1886</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Sprawozdanie z Conference of the International Society for the Study of Individual Differences (ISSID 2017)</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2018-02-21</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Studia Psychologica</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Klaudia_Ponikiewska_5</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>315</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Intelektualna, emocjonalna i działaniowa bliskość małżonków a ich gotowość do rozwiązywania konfliktów oraz przebaczania</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Maria_Ryś_7</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>316</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Okazywanie czułości między rodzicami i dziećmi-w narracjach dzieci chorujących na białaczkę</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Maria_Ryś_8</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>317</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Psychologiczne aspekty dojrzałości młodych do małżeństwa.  Skala Dojrzałości Psychicznej do Małżeństwa. SKALDOM II</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Maria_Ryś_9</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>321</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Kształtowanie się i rozwój odporności psychicznej</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Maria_Ryś_13</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>322</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Family with alcohol problems and the development of children brought up in it</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Maria_Ryś_14</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>323</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Family with alcohol problems.  Functioning of a co-addicted person</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Maria_Ryś_15</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>324</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Family with an alcohol problem. Functioning of a co-addicted person</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Maria_Ryś_16</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>325</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Maria Ryś</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4287-1261</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>The attachment-forming effects  of the first sexual relationship Consequences of dissolution  of the first sexual relationship  in light of attachment theory</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Maria_Ryś_17</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>327</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Jolanta Barbara Rytel</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9244-7592</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Agresja kobiet a agresja mężczyzn</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Cywilizacja.  O nauce, moralności, sztuce i religii</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Jolanta_Barbara_Rytel_2</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>336</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Ewa Wiktoria Skimina</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2888-4691</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Zachowania celowe mierzone samoopisowo – pomiar i struktura</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Psychologia – Etologia – Genetyka</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Ewa_Wiktoria_Skimina_8</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>341</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Ilona Skoczeń</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7545-5059</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Przegląd podejść teoretycznych oraz modeli empirycznych w badaniach nad równoważaniem życia zawodowego i rodzinnego</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Studia nad Rodziną</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Ilona_Skoczeń_4</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>348</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Małgorzata Starzomska-Romanowska</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9540-2402</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Fides et Ratio</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2019-12-10</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Małgorzata_Starzomska-Romanowska_4</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>351</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Małgorzata Starzomska-Romanowska</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9540-2402</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Applications of the dot probe task in attentional bias research in eating disorders</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Psicológica</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Małgorzata_Starzomska-Romanowska_7</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>377</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Włodzimierz Andrzej Strus</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5044-5660</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t xml:space="preserve">Osobowość psychopatyczna – nowe ujęcia starej problematyki. </t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>BIULETYN POLSKIEGO TOWARZYSTWA KRYMINOLOGICZNEGO</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Włodzimierz_Andrzej_Strus_26</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>382</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Włodzimierz Andrzej Strus</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5044-5660</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Zachowania celowe mierzone samoopisowo – pomiar i struktura</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>PSYCHOLOGIA-ETOLOGIA-GENETYKA</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Włodzimierz_Andrzej_Strus_31</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>385</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Agnieszka Szymańska</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9976-0410</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Strategia Badania Doświadczenia Dzieci na przykładzie sytuacji hamowania ich aktywności</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Studia z Teorii Wychowania</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Agnieszka_Szymańska_2</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>389</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Agnieszka Szymańska</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9976-0410</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Bł̧edy wychowawcze popełniane przez rodziców a rozwój kompetencji emocjonalnych dzieci w wieku wczesnoszkolnym [Parental mistakes and the development of emotional competencies of children in early school age]</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Studia z Teorii Wychowania</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Agnieszka_Szymańska_6</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>391</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Agnieszka Szymańska</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9976-0410</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Problematyka hierarchiczności – wyprowadzanie meta-cech w modelach SEM [The issue of hierarchical models - the construction of meta-features in structural equation models]</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Studia Psychologica. Theoria et Praxis.</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Agnieszka_Szymańska_8</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>395</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Agnieszka Szymańska</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9976-0410</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Wykorzystanie analizy skupień metoḑa data mining do wykreślania profili osób badanych w badaniach psychologicznych [Using cluster analysis in the data mining method to draw profiles of participants surveyed in psychological research]</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Studia Psychologiczne</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Agnieszka_Szymańska_12</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>405</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Sławomir Ślaski</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2728-837X</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Transgresja twórcza a style zachowania i przywiązania u studentów</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2017-01-19</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides at Ratio</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Sławomir_Ślaski_7</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>406</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Sławomir Ślaski</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-2728-837X</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Funkcjonowanie emocjonalne a transgresyjny motyw używania alkoholu wśród studentów</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2017-01-03</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides at Ratio</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Sławomir_Ślaski_8</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>408</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Jan Felicjan Terelak</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8884-9409</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Stres związany z restrukturyzacją organizacji : perspektywa psychologiczna</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Studia i Materiały Wydziału Zarządzania i Administracji Wyższej Szkoły Pedagogicznej im. Jana Kochanowskiego w Kielcach</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Jan_Felicjan_Terelak_2</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>412</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Jan Felicjan Terelak</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8884-9409</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Organizacja jako sieć transakcji interpersonalnych : wkład psychologii organizacji do nauk o zarządzaniu w okresie postmodernizmu</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Studia i Materiały Wydziału Zarządzania i Administracji Wyższej Szkoły Pedagogicznej im. Jana Kochanowskiego w Kielcach</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Jan_Felicjan_Terelak_6</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>433</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Waldemar Tomasz Woźniak</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1560-6489</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Możliwości dochodzenia do prawdy poprzez zastosowanie badań poligraficznych</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>2018-12-30</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Waldemar_Tomasz_Woźniak_9</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>434</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Wanda Zagórska</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2615-9565</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Troska o relację podmiotową miarą dojrzewania w człowieczeństwie. W kręgu myśli Gabriela Marcela i ks. Tadeusza Dajczera</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Studia Włocławskie</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Wanda_Zagórska_1</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>439</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Wanda Zagórska</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2615-9565</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Chrześcijanin wobec wyzwań globalnej przestrzeni wirtualnej</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Edukacja. Teologia i Dialog</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Wanda_Zagórska_6</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>440</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Wanda Zagórska</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2615-9565</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Komunikacja niewerbalna osób uzależnionych od alkoholu. Przegląd badań</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Wanda_Zagórska_7</t>
         </is>
